--- a/spotifyclassificado.xlsx
+++ b/spotifyclassificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbuto\Documents\CD2020\projeto01_Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943547A0-7A24-4BE7-84BD-8FD4D316CE64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3238186A-73B1-4CAC-92E6-C73E207CB105}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="72" windowWidth="16896" windowHeight="12288" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="403">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1229,19 +1229,7 @@
     <t>nellysoaress primeiro deixa hidratando na água até mudar a coloraçãoda agua dps troca a água por mais uns 15min e aí cozinha com os temperos que preferires um cheiro cebola e alho fica topzera tbm  ainda coloca essa relíquia de fundo asuhdahusdahsd httpstcosx0tyn5cyc</t>
   </si>
   <si>
-    <t>legenda</t>
-  </si>
-  <si>
-    <t>3-artista/album/genero</t>
-  </si>
-  <si>
-    <t>1-irrelevante</t>
-  </si>
-  <si>
-    <t>2-marca</t>
-  </si>
-  <si>
-    <t>4-música específica/podcast</t>
+    <t>RELEVANCIA</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" zoomScale="70" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView zoomScale="70" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,59 +1642,47 @@
     <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4083,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" zoomScale="43" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,6 +4072,9 @@
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
